--- a/wc_all_time.xlsx
+++ b/wc_all_time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long2\Desktop\Social_Analytics_Part3\Day2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long2\Desktop\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA593D9A-89D5-4F56-9AD1-0F36600A2A75}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21E7F3-0328-4314-996D-254C8E273C8A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{4AE6A1FB-A376-4CEA-AAB0-38ECE7DA81BD}"/>
   </bookViews>
@@ -2042,16 +2042,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2370,13 +2370,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5644ADF-9DA2-434B-BA95-0D95049A9177}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="40.7265625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2389,7 +2391,7 @@
       <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>623</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2434,7 +2436,7 @@
         <f>VLOOKUP(B2,Sheet1!A:B,2,FALSE)</f>
         <v>BRA</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <f>VLOOKUP(C2,Sheet1!B:C,2,FALSE)</f>
         <v>1796186586414.4456</v>
       </c>
@@ -2480,7 +2482,7 @@
         <f>VLOOKUP(B3,Sheet1!A:B,2,FALSE)</f>
         <v>DEU</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <f>VLOOKUP(C3,Sheet1!B:C,2,FALSE)</f>
         <v>3477796274496.8037</v>
       </c>
@@ -2526,7 +2528,7 @@
         <f>VLOOKUP(B4,Sheet1!A:B,2,FALSE)</f>
         <v>ITA</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <f>VLOOKUP(C4,Sheet1!B:C,2,FALSE)</f>
         <v>1859383610248.7178</v>
       </c>
@@ -2572,7 +2574,7 @@
         <f>VLOOKUP(B5,Sheet1!A:B,2,FALSE)</f>
         <v>ARG</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <f>VLOOKUP(C5,Sheet1!B:C,2,FALSE)</f>
         <v>545476103427.24719</v>
       </c>
@@ -2618,7 +2620,7 @@
         <f>VLOOKUP(B6,Sheet1!A:B,2,FALSE)</f>
         <v>ESP</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <f>VLOOKUP(C6,Sheet1!B:C,2,FALSE)</f>
         <v>1237255019653.8586</v>
       </c>
@@ -2663,7 +2665,7 @@
       <c r="C7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <f>VLOOKUP(C7,Sheet1!B:C,2,FALSE)</f>
         <v>2650850178102.1426</v>
       </c>
@@ -2709,7 +2711,7 @@
         <f>VLOOKUP(B8,Sheet1!A:B,2,FALSE)</f>
         <v>FRA</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <f>VLOOKUP(C8,Sheet1!B:C,2,FALSE)</f>
         <v>2465453975282.2388</v>
       </c>
@@ -2755,7 +2757,7 @@
         <f>VLOOKUP(B9,Sheet1!A:B,2,FALSE)</f>
         <v>NLD</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <f>VLOOKUP(C9,Sheet1!B:C,2,FALSE)</f>
         <v>777227541581.30713</v>
       </c>
@@ -2798,7 +2800,7 @@
         <f>VLOOKUP(B10,Sheet1!A:B,2,FALSE)</f>
         <v>URY</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <f>VLOOKUP(C10,Sheet1!B:C,2,FALSE)</f>
         <v>52419720713.731575</v>
       </c>
@@ -2844,7 +2846,7 @@
         <f>VLOOKUP(B11,Sheet1!A:B,2,FALSE)</f>
         <v>SWE</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <f>VLOOKUP(C11,Sheet1!B:C,2,FALSE)</f>
         <v>514459972806.17133</v>
       </c>
@@ -2886,7 +2888,7 @@
       <c r="C12" t="s">
         <v>489</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <f>VLOOKUP(C12,Sheet1!B:C,2,FALSE)</f>
         <v>1283162985989.3015</v>
       </c>
@@ -2929,7 +2931,7 @@
         <f>VLOOKUP(B13,Sheet1!A:B,2,FALSE)</f>
         <v>SRB</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <f>VLOOKUP(C13,Sheet1!B:C,2,FALSE)</f>
         <v>38299854688.127655</v>
       </c>
@@ -2972,7 +2974,7 @@
         <f>VLOOKUP(B14,Sheet1!A:B,2,FALSE)</f>
         <v>MEX</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <f>VLOOKUP(C14,Sheet1!B:C,2,FALSE)</f>
         <v>1046922702460.874</v>
       </c>
@@ -3015,7 +3017,7 @@
         <f>VLOOKUP(B15,Sheet1!A:B,2,FALSE)</f>
         <v>BEL</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <f>VLOOKUP(C15,Sheet1!B:C,2,FALSE)</f>
         <v>467955709817.53906</v>
       </c>
@@ -3058,7 +3060,7 @@
         <f>VLOOKUP(B16,Sheet1!A:B,2,FALSE)</f>
         <v>POL</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <f>VLOOKUP(C16,Sheet1!B:C,2,FALSE)</f>
         <v>471364408713.95605</v>
       </c>
@@ -3101,7 +3103,7 @@
         <f>VLOOKUP(B17,Sheet1!A:B,2,FALSE)</f>
         <v>HUN</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <f>VLOOKUP(C17,Sheet1!B:C,2,FALSE)</f>
         <v>125816640420.56918</v>
       </c>
@@ -3144,7 +3146,7 @@
         <f>VLOOKUP(B18,Sheet1!A:B,2,FALSE)</f>
         <v>PRT</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <f>VLOOKUP(C18,Sheet1!B:C,2,FALSE)</f>
         <v>205184480409.02405</v>
       </c>
@@ -3187,7 +3189,7 @@
         <f>VLOOKUP(B19,Sheet1!A:B,2,FALSE)</f>
         <v>CZE</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <f>VLOOKUP(C19,Sheet1!B:C,2,FALSE)</f>
         <v>195305084919.13815</v>
       </c>
@@ -3230,7 +3232,7 @@
         <f>VLOOKUP(B20,Sheet1!A:B,2,FALSE)</f>
         <v>AUT</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <f>VLOOKUP(C20,Sheet1!B:C,2,FALSE)</f>
         <v>390799991147.46753</v>
       </c>
@@ -3273,7 +3275,7 @@
         <f>VLOOKUP(B21,Sheet1!A:B,2,FALSE)</f>
         <v>CHL</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <f>VLOOKUP(C21,Sheet1!B:C,2,FALSE)</f>
         <v>247027912574.34998</v>
       </c>
@@ -3316,7 +3318,7 @@
         <f>VLOOKUP(B22,Sheet1!A:B,2,FALSE)</f>
         <v>CHE</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <f>VLOOKUP(C22,Sheet1!B:C,2,FALSE)</f>
         <v>668851296244.23572</v>
       </c>
@@ -3359,7 +3361,7 @@
         <f>VLOOKUP(B23,Sheet1!A:B,2,FALSE)</f>
         <v>PRY</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <f>VLOOKUP(C23,Sheet1!B:C,2,FALSE)</f>
         <v>27424071382.724442</v>
       </c>
@@ -3401,7 +3403,7 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <f>VLOOKUP(C24,Sheet1!B:C,2,FALSE)</f>
         <v>18624475000000</v>
       </c>
@@ -3444,7 +3446,7 @@
         <f>VLOOKUP(B25,Sheet1!A:B,2,FALSE)</f>
         <v>ROU</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <f>VLOOKUP(C25,Sheet1!B:C,2,FALSE)</f>
         <v>187592037839.96848</v>
       </c>
@@ -3487,7 +3489,7 @@
         <f>VLOOKUP(B26,Sheet1!A:B,2,FALSE)</f>
         <v>DNK</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <f>VLOOKUP(C26,Sheet1!B:C,2,FALSE)</f>
         <v>306899653409.60144</v>
       </c>
@@ -3530,7 +3532,7 @@
         <f>VLOOKUP(B27,Sheet1!A:B,2,FALSE)</f>
         <v>KOR</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <f>VLOOKUP(C27,Sheet1!B:C,2,FALSE)</f>
         <v>1411245589976.6301</v>
       </c>
@@ -3573,7 +3575,7 @@
         <f>VLOOKUP(B28,Sheet1!A:B,2,FALSE)</f>
         <v>HRV</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <f>VLOOKUP(C28,Sheet1!B:C,2,FALSE)</f>
         <v>50714957390.537758</v>
       </c>
@@ -3616,7 +3618,7 @@
         <f>VLOOKUP(B29,Sheet1!A:B,2,FALSE)</f>
         <v>COL</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <f>VLOOKUP(C29,Sheet1!B:C,2,FALSE)</f>
         <v>282462551366.87769</v>
       </c>
@@ -3659,7 +3661,7 @@
         <f>VLOOKUP(B30,Sheet1!A:B,2,FALSE)</f>
         <v>CRI</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <f>VLOOKUP(C30,Sheet1!B:C,2,FALSE)</f>
         <v>57435507212.255997</v>
       </c>
@@ -3701,7 +3703,7 @@
       <c r="C31" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <f>VLOOKUP(C31,Sheet1!B:C,2,FALSE)</f>
         <v>2650850178102.1426</v>
       </c>
@@ -3744,7 +3746,7 @@
         <f>VLOOKUP(B32,Sheet1!A:B,2,FALSE)</f>
         <v>CMR</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <f>VLOOKUP(C32,Sheet1!B:C,2,FALSE)</f>
         <v>32217497470.48904</v>
       </c>
@@ -3787,7 +3789,7 @@
         <f>VLOOKUP(B33,Sheet1!A:B,2,FALSE)</f>
         <v>NGA</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <f>VLOOKUP(C33,Sheet1!B:C,2,FALSE)</f>
         <v>404652720164.85852</v>
       </c>
@@ -3830,7 +3832,7 @@
         <f>VLOOKUP(B34,Sheet1!A:B,2,FALSE)</f>
         <v>BGR</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="12">
         <f>VLOOKUP(C34,Sheet1!B:C,2,FALSE)</f>
         <v>53237882472.710823</v>
       </c>
@@ -3873,7 +3875,7 @@
         <f>VLOOKUP(B35,Sheet1!A:B,2,FALSE)</f>
         <v>TUR</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <f>VLOOKUP(C35,Sheet1!B:C,2,FALSE)</f>
         <v>863711710426.51404</v>
       </c>
@@ -3916,7 +3918,7 @@
         <f>VLOOKUP(B36,Sheet1!A:B,2,FALSE)</f>
         <v>JPN</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <f>VLOOKUP(C36,Sheet1!B:C,2,FALSE)</f>
         <v>4949273341993.877</v>
       </c>
@@ -3959,7 +3961,7 @@
         <f>VLOOKUP(B37,Sheet1!A:B,2,FALSE)</f>
         <v>GHA</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <f>VLOOKUP(C37,Sheet1!B:C,2,FALSE)</f>
         <v>42689783733.873009</v>
       </c>
@@ -4002,7 +4004,7 @@
         <f>VLOOKUP(B38,Sheet1!A:B,2,FALSE)</f>
         <v>PER</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <f>VLOOKUP(C38,Sheet1!B:C,2,FALSE)</f>
         <v>192207342004.68134</v>
       </c>
@@ -4044,7 +4046,7 @@
       <c r="C39" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <f>VLOOKUP(C39,Sheet1!B:C,2,FALSE)</f>
         <v>304819018067.10712</v>
       </c>
@@ -4086,7 +4088,7 @@
       <c r="C40" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="12">
         <f>VLOOKUP(C40,Sheet1!B:C,2,FALSE)</f>
         <v>304819018067.10712</v>
       </c>
@@ -4129,7 +4131,7 @@
         <f>VLOOKUP(B41,Sheet1!A:B,2,FALSE)</f>
         <v>ECU</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <f>VLOOKUP(C41,Sheet1!B:C,2,FALSE)</f>
         <v>98613971999.999985</v>
       </c>
@@ -4172,7 +4174,7 @@
         <f>VLOOKUP(B42,Sheet1!A:B,2,FALSE)</f>
         <v>DZA</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <f>VLOOKUP(C42,Sheet1!B:C,2,FALSE)</f>
         <v>159049096745.24936</v>
       </c>
@@ -4214,7 +4216,7 @@
       <c r="C43" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D43" s="11" t="e">
+      <c r="D43" s="12" t="e">
         <f>VLOOKUP(C43,Sheet1!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4257,7 +4259,7 @@
         <f>VLOOKUP(B44,Sheet1!A:B,2,FALSE)</f>
         <v>ZAF</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="12">
         <f>VLOOKUP(C44,Sheet1!B:C,2,FALSE)</f>
         <v>295456189492.00476</v>
       </c>
@@ -4300,7 +4302,7 @@
         <f>VLOOKUP(B45,Sheet1!A:B,2,FALSE)</f>
         <v>MAR</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="12">
         <f>VLOOKUP(C45,Sheet1!B:C,2,FALSE)</f>
         <v>103606321692.58221</v>
       </c>
@@ -4343,7 +4345,7 @@
         <f>VLOOKUP(B46,Sheet1!A:B,2,FALSE)</f>
         <v>NOR</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="12">
         <f>VLOOKUP(C46,Sheet1!B:C,2,FALSE)</f>
         <v>371075238095.2381</v>
       </c>
@@ -4386,7 +4388,7 @@
         <f>VLOOKUP(B47,Sheet1!A:B,2,FALSE)</f>
         <v>SEN</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="12">
         <f>VLOOKUP(C47,Sheet1!B:C,2,FALSE)</f>
         <v>14683697630.899982</v>
       </c>
@@ -4429,7 +4431,7 @@
         <f>VLOOKUP(B48,Sheet1!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D48" s="11" t="e">
+      <c r="D48" s="12" t="e">
         <f>VLOOKUP(C48,Sheet1!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4472,7 +4474,7 @@
         <f>VLOOKUP(B49,Sheet1!A:B,2,FALSE)</f>
         <v>AUS</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="12">
         <f>VLOOKUP(C49,Sheet1!B:C,2,FALSE)</f>
         <v>1204616439828.4082</v>
       </c>
@@ -4515,7 +4517,7 @@
         <f>VLOOKUP(B50,Sheet1!A:B,2,FALSE)</f>
         <v>GRC</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="12">
         <f>VLOOKUP(C50,Sheet1!B:C,2,FALSE)</f>
         <v>192690813126.86044</v>
       </c>
@@ -4558,7 +4560,7 @@
         <f>VLOOKUP(B51,Sheet1!A:B,2,FALSE)</f>
         <v>SAU</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="12">
         <f>VLOOKUP(C51,Sheet1!B:C,2,FALSE)</f>
         <v>646438380560</v>
       </c>
@@ -4601,7 +4603,7 @@
         <f>VLOOKUP(B52,Sheet1!A:B,2,FALSE)</f>
         <v>UKR</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="12">
         <f>VLOOKUP(C52,Sheet1!B:C,2,FALSE)</f>
         <v>93270479388.524261</v>
       </c>
@@ -4644,7 +4646,7 @@
         <f>VLOOKUP(B53,Sheet1!A:B,2,FALSE)</f>
         <v>TUN</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="12">
         <f>VLOOKUP(C53,Sheet1!B:C,2,FALSE)</f>
         <v>42062549394.785851</v>
       </c>
@@ -4686,7 +4688,7 @@
       <c r="C54" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="12">
         <f>VLOOKUP(C54,Sheet1!B:C,2,FALSE)</f>
         <v>2650850178102.1426</v>
       </c>
@@ -4728,7 +4730,7 @@
       <c r="C55" t="s">
         <v>309</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="12">
         <f>VLOOKUP(C55,Sheet1!B:C,2,FALSE)</f>
         <v>418976679728.56732</v>
       </c>
@@ -4764,14 +4766,14 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="2" t="str">
         <f>VLOOKUP(B56,Sheet1!A:B,2,FALSE)</f>
         <v>CUB</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="12">
         <f>VLOOKUP(C56,Sheet1!B:C,2,FALSE)</f>
         <v>0</v>
       </c>
@@ -4813,7 +4815,7 @@
       <c r="C57" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D57" s="11" t="e">
+      <c r="D57" s="12" t="e">
         <f>VLOOKUP(C57,Sheet1!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4856,7 +4858,7 @@
         <f>VLOOKUP(B58,Sheet1!A:B,2,FALSE)</f>
         <v>SVN</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="12">
         <f>VLOOKUP(C58,Sheet1!B:C,2,FALSE)</f>
         <v>44708598648.856239</v>
       </c>
@@ -4898,7 +4900,7 @@
       <c r="C59" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D59" s="11" t="e">
+      <c r="D59" s="12" t="e">
         <f>VLOOKUP(C59,Sheet1!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4941,7 +4943,7 @@
         <f>VLOOKUP(B60,Sheet1!A:B,2,FALSE)</f>
         <v>BIH</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="12">
         <f>VLOOKUP(C60,Sheet1!B:C,2,FALSE)</f>
         <v>16910277133.64629</v>
       </c>
@@ -4984,7 +4986,7 @@
         <f>VLOOKUP(B61,Sheet1!A:B,2,FALSE)</f>
         <v>JAM</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="12">
         <f>VLOOKUP(C61,Sheet1!B:C,2,FALSE)</f>
         <v>14056908749.350494</v>
       </c>
@@ -5027,7 +5029,7 @@
         <f>VLOOKUP(B62,Sheet1!A:B,2,FALSE)</f>
         <v>NZL</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="12">
         <f>VLOOKUP(C62,Sheet1!B:C,2,FALSE)</f>
         <v>184970675762.69122</v>
       </c>
@@ -5070,7 +5072,7 @@
         <f>VLOOKUP(B63,Sheet1!A:B,2,FALSE)</f>
         <v>HND</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="12">
         <f>VLOOKUP(C63,Sheet1!B:C,2,FALSE)</f>
         <v>21516938909.568645</v>
       </c>
@@ -5113,7 +5115,7 @@
         <f>VLOOKUP(B64,Sheet1!A:B,2,FALSE)</f>
         <v>AGO</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="12">
         <f>VLOOKUP(C64,Sheet1!B:C,2,FALSE)</f>
         <v>95335111741.202469</v>
       </c>
@@ -5156,7 +5158,7 @@
         <f>VLOOKUP(B65,Sheet1!A:B,2,FALSE)</f>
         <v>ISR</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="12">
         <f>VLOOKUP(C65,Sheet1!B:C,2,FALSE)</f>
         <v>317744784695.09973</v>
       </c>
@@ -5198,7 +5200,7 @@
       <c r="C66" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="12">
         <f>VLOOKUP(C66,Sheet1!B:C,2,FALSE)</f>
         <v>332791045963.80688</v>
       </c>
@@ -5241,7 +5243,7 @@
         <f>VLOOKUP(B67,Sheet1!A:B,2,FALSE)</f>
         <v>KWT</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="12">
         <f>VLOOKUP(C67,Sheet1!B:C,2,FALSE)</f>
         <v>110875579086.69754</v>
       </c>
@@ -5284,7 +5286,7 @@
         <f>VLOOKUP(B68,Sheet1!A:B,2,FALSE)</f>
         <v>TTO</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="12">
         <f>VLOOKUP(C68,Sheet1!B:C,2,FALSE)</f>
         <v>21894706041.23526</v>
       </c>
@@ -5327,7 +5329,7 @@
         <f>VLOOKUP(B69,Sheet1!A:B,2,FALSE)</f>
         <v>BOL</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="12">
         <f>VLOOKUP(C69,Sheet1!B:C,2,FALSE)</f>
         <v>33806395513.748192</v>
       </c>
@@ -5370,7 +5372,7 @@
         <f>VLOOKUP(B70,Sheet1!A:B,2,FALSE)</f>
         <v>IDN</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="12">
         <f>VLOOKUP(C70,Sheet1!B:C,2,FALSE)</f>
         <v>932259177765.30713</v>
       </c>
@@ -5413,7 +5415,7 @@
         <f>VLOOKUP(B71,Sheet1!A:B,2,FALSE)</f>
         <v>IRQ</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="12">
         <f>VLOOKUP(C71,Sheet1!B:C,2,FALSE)</f>
         <v>171489001692.04736</v>
       </c>
@@ -5456,7 +5458,7 @@
         <f>VLOOKUP(B72,Sheet1!A:B,2,FALSE)</f>
         <v>TGO</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="12">
         <f>VLOOKUP(C72,Sheet1!B:C,2,FALSE)</f>
         <v>4399995986.5647736</v>
       </c>
@@ -5499,7 +5501,7 @@
         <f>VLOOKUP(B73,Sheet1!A:B,2,FALSE)</f>
         <v>CAN</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="12">
         <f>VLOOKUP(C73,Sheet1!B:C,2,FALSE)</f>
         <v>1535767736946.1799</v>
       </c>
@@ -5542,7 +5544,7 @@
         <f>VLOOKUP(B74,Sheet1!A:B,2,FALSE)</f>
         <v>ARE</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="12">
         <f>VLOOKUP(C74,Sheet1!B:C,2,FALSE)</f>
         <v>348743265704.56097</v>
       </c>
@@ -5585,7 +5587,7 @@
         <f>VLOOKUP(B75,Sheet1!A:B,2,FALSE)</f>
         <v>CHN</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="12">
         <f>VLOOKUP(C75,Sheet1!B:C,2,FALSE)</f>
         <v>11199145157649.184</v>
       </c>
@@ -5628,7 +5630,7 @@
         <f>VLOOKUP(B76,Sheet1!A:B,2,FALSE)</f>
         <v>HTI</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="12">
         <f>VLOOKUP(C76,Sheet1!B:C,2,FALSE)</f>
         <v>8022638721.920126</v>
       </c>
@@ -5671,7 +5673,7 @@
         <f>VLOOKUP(B77,Sheet1!A:B,2,FALSE)</f>
         <v>COD</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="12">
         <f>VLOOKUP(C77,Sheet1!B:C,2,FALSE)</f>
         <v>35381784773.828262</v>
       </c>
@@ -5714,7 +5716,7 @@
         <f>VLOOKUP(B78,Sheet1!A:B,2,FALSE)</f>
         <v>SLV</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="12">
         <f>VLOOKUP(C78,Sheet1!B:C,2,FALSE)</f>
         <v>26797470000</v>
       </c>
@@ -5747,16 +5749,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5767,14 +5761,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
